--- a/biology/Botanique/Sansevieria_braunii/Sansevieria_braunii.xlsx
+++ b/biology/Botanique/Sansevieria_braunii/Sansevieria_braunii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria braunii, également appelée Dracaena testudinea[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria braunii, également appelée Dracaena testudinea, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria braunii est une espèce de sansevières à feuilles de taille moyenne (50 à 70 cm de longueur et 7 à 11 cm de largeur), rigides, coriaces, lancéolées, de couleur verte avec quelques stries plus claires et des bords brun-rouge. Acaulescentes, elles poussent directement depuis le rhyzome. Les inflorescences simples et cylindriques mesurent 45 cm, avec un pédoncule rougeâtre et des fleurs blanches[2],[3].
-L'espèce présente une possible confusion avec Sansevieria longistyla[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria braunii est une espèce de sansevières à feuilles de taille moyenne (50 à 70 cm de longueur et 7 à 11 cm de largeur), rigides, coriaces, lancéolées, de couleur verte avec quelques stries plus claires et des bords brun-rouge. Acaulescentes, elles poussent directement depuis le rhyzome. Les inflorescences simples et cylindriques mesurent 45 cm, avec un pédoncule rougeâtre et des fleurs blanches,.
+L'espèce présente une possible confusion avec Sansevieria longistyla.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est identifiée par les botanistes autrichiens Heinrich Gustav Adolf Engler et Kurt Krause en 1910[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est identifiée par les botanistes autrichiens Heinrich Gustav Adolf Engler et Kurt Krause en 1910.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire du sud de la Tanzanie et pousse dans les zones très ombragées des bois[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire du sud de la Tanzanie et pousse dans les zones très ombragées des bois,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce présente un synonyme[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce présente un synonyme :
 Dracaena testudinea (Engler et K. Krause, 1910 ; Byng &amp; Christenh., 2018)</t>
         </is>
       </c>
